--- a/stopwords_Hayatt.xlsx
+++ b/stopwords_Hayatt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysh03\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysh03\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6559284-69D8-40F7-9274-76D7A70AD659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8FF622-F746-444B-A4F5-92410BC36110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0818C109-DBC0-4EB7-968B-AAA2693E013C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="604">
   <si>
     <t>휴</t>
   </si>
@@ -1816,10 +1816,6 @@
   </si>
   <si>
     <t>아홉</t>
-  </si>
-  <si>
-    <t>니엘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>것</t>
@@ -1838,11 +1834,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>파크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하얏트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파크하얏트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>호텔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롯데</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2207,22 +2219,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042FB1A0-1899-4724-BCDD-BD625CA1404B}">
-  <dimension ref="A1:A681"/>
+  <dimension ref="A1:A684"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A669" workbookViewId="0">
-      <selection activeCell="A677" sqref="A677"/>
+      <selection activeCell="A685" sqref="A685"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -5597,17 +5609,17 @@
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.3">
@@ -5618,6 +5630,21 @@
     <row r="681" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>600</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A682" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A683" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A684" t="s">
+        <v>603</v>
       </c>
     </row>
   </sheetData>
